--- a/Wine_Quality/outputs/train_80_test_20/depth_3/wq_train_80_test_20_depth_3_report.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/depth_3/wq_train_80_test_20_depth_3_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.34765625</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.4208037825059102</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8127240143369175</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9115577889447236</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8593083846518238</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>995</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.8102383053839365</v>
       </c>
       <c r="C4" t="n">
-        <v>0.375</v>
+        <v>0.9226130653266331</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4363636363636363</v>
+        <v>0.8627819548872181</v>
       </c>
       <c r="E4" t="n">
-        <v>256</v>
+        <v>995</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7715384615384615</v>
+        <v>0.7746153846153846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7715384615384615</v>
+        <v>0.7746153846153846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7715384615384615</v>
+        <v>0.7746153846153846</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7715384615384615</v>
+        <v>0.7746153846153846</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4448210482572334</v>
+        <v>0.4477241457068211</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4288525963149079</v>
+        <v>0.4234231051088777</v>
       </c>
       <c r="D6" t="n">
-        <v>0.43189067367182</v>
+        <v>0.4278619124643761</v>
       </c>
       <c r="E6" t="n">
         <v>1300</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7247889320434903</v>
+        <v>0.7250909627550521</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7715384615384615</v>
+        <v>0.7746153846153846</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7436314874135813</v>
+        <v>0.7432260103340731</v>
       </c>
       <c r="E7" t="n">
         <v>1300</v>

--- a/Wine_Quality/outputs/train_80_test_20/depth_3/wq_train_80_test_20_depth_3_report.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/depth_3/wq_train_80_test_20_depth_3_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5329341317365269</v>
+        <v>0.53</v>
       </c>
       <c r="C2" t="n">
-        <v>0.34765625</v>
+        <v>0.35</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4208037825059102</v>
+        <v>0.42</v>
       </c>
       <c r="E2" t="n">
         <v>256</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8102383053839365</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9226130653266331</v>
+        <v>0.92</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8627819548872181</v>
+        <v>0.86</v>
       </c>
       <c r="E4" t="n">
         <v>995</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7746153846153846</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7746153846153846</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7746153846153846</v>
+        <v>0.77</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7746153846153846</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4477241457068211</v>
+        <v>0.45</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4234231051088777</v>
+        <v>0.42</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4278619124643761</v>
+        <v>0.43</v>
       </c>
       <c r="E6" t="n">
         <v>1300</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7250909627550521</v>
+        <v>0.73</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7746153846153846</v>
+        <v>0.77</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7432260103340731</v>
+        <v>0.74</v>
       </c>
       <c r="E7" t="n">
         <v>1300</v>
